--- a/model_inputs/financial_reports/imaging/FHA.xlsx
+++ b/model_inputs/financial_reports/imaging/FHA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5274A-F5EF-4CE9-A082-F446C9142243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,17 @@
     <sheet name="BME_DI_MTN" sheetId="3" r:id="rId3"/>
     <sheet name="BME_DI_OCEAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,25 +48,25 @@
     <t>actual_parts_exp</t>
   </si>
   <si>
-    <t>budg_partial_oh</t>
+    <t>budgeted_partial_oh</t>
   </si>
   <si>
-    <t>budg_total_exp</t>
+    <t>budgeted_total_exp</t>
   </si>
   <si>
-    <t>budg_labour_exp</t>
+    <t>budgeted_labour_exp</t>
   </si>
   <si>
-    <t>budg_contracts_exp</t>
+    <t>budgeted_contracts_exp</t>
   </si>
   <si>
-    <t>budg_parts_exp</t>
+    <t>budgeted_parts_exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -146,7 +157,7 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -241,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,7 +496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -463,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,234 +567,154 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1013</v>
+        <v>1713</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B10" si="0">C2-D2-E2-F2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <f t="shared" ref="B2:B5" si="0">C2-D2</f>
+        <v>405014.48</v>
+      </c>
+      <c r="C2" s="5">
+        <v>713129.48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>308115</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G11" si="1">H2-I2-J2-K2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+        <f t="shared" ref="G2:G5" si="1">H2-I2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1113</v>
+        <v>1813</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="5">
+        <v>317361</v>
+      </c>
+      <c r="D3" s="5">
+        <v>317361</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
       <c r="G3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="5">
+        <v>279990</v>
+      </c>
+      <c r="I3" s="5">
+        <v>279990</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1213</v>
+        <v>1913</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="5">
+        <v>270092</v>
+      </c>
+      <c r="D4" s="5">
+        <v>270092</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="5">
+        <v>286736</v>
+      </c>
+      <c r="I4" s="5">
+        <v>286736</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1313</v>
+        <v>2013</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>598.89000000001397</v>
+      </c>
+      <c r="C5" s="5">
+        <v>362547.89</v>
+      </c>
+      <c r="D5" s="5">
+        <v>361949</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1413</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1513</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H5" s="5">
+        <v>320268</v>
+      </c>
+      <c r="I5" s="5">
+        <v>320268</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1613</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1713</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1813</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1913</v>
-      </c>
-      <c r="B11" s="4">
-        <f>C11-D11-E11-F11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="4">
-        <f>C12-D12-E12-F12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6">
-        <f>H12-I12-J12-K12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -757,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,234 +781,235 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1013</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B10" si="0">C2-D2-E2-F2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+        <f t="shared" ref="B2:B9" si="0">C2-D2</f>
+        <v>2046045.8299999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2864187.59</v>
+      </c>
+      <c r="D2" s="5">
+        <v>818141.76</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G11" si="1">H2-I2-J2-K2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+        <f t="shared" ref="G2:G9" si="1">H2-I2</f>
+        <v>1558398</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2354597</v>
+      </c>
+      <c r="I2" s="5">
+        <v>796199</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1113</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>2558097.06</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3711492.06</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1153395</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>2234305</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3106498</v>
+      </c>
+      <c r="I3" s="5">
+        <v>872193</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1213</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>2385550.69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3366368.69</v>
+      </c>
+      <c r="D4" s="5">
+        <v>980818</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+        <v>2580254</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3383049</v>
+      </c>
+      <c r="I4" s="5">
+        <v>802795</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1313</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>2355676.5699999998</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3382849.57</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1027173</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>2580404</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3483822</v>
+      </c>
+      <c r="I5" s="5">
+        <v>903418</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1413</v>
+        <v>1713</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>1942942.5099999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2606769.5099999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>663827</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+        <v>2675404</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3625915</v>
+      </c>
+      <c r="I6" s="5">
+        <v>950511</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1513</v>
+        <v>1813</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>2312937.6800000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2957063.68</v>
+      </c>
+      <c r="D7" s="5">
+        <v>644126</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>2410047</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3092316</v>
+      </c>
+      <c r="I7" s="5">
+        <v>682269</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1613</v>
+        <v>1913</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>2639840.0699999998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3309280.07</v>
+      </c>
+      <c r="D8" s="5">
+        <v>669440</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+        <v>2407712</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3102427</v>
+      </c>
+      <c r="I8" s="5">
+        <v>694715</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1713</v>
+        <v>2013</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>2621474.3199999998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3354112.32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>732638</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>2460881</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3310502</v>
+      </c>
+      <c r="I9" s="5">
+        <v>849621</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1813</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1913</v>
-      </c>
-      <c r="B11" s="4">
-        <f>C11-D11-E11-F11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="4">
-        <f>C12-D12-E12-F12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6">
-        <f>H12-I12-J12-K12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,234 +1076,264 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1013</v>
+        <v>1213</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B10" si="0">C2-D2-E2-F2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+        <f t="shared" ref="B2:B8" si="0">C2-D2-E2-F2</f>
+        <v>1411013.6400000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2094024.55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>683010.91</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G11" si="1">H2-I2-J2-K2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+        <f t="shared" ref="G2:G9" si="1">H2-I2-J2-K2</f>
+        <v>1430960</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2226595</v>
+      </c>
+      <c r="I2" s="5">
+        <v>795635</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1113</v>
+        <v>1313</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>1411013.6400000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2094024.55</v>
+      </c>
+      <c r="D3" s="5">
+        <v>683010.91</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>1430960</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2226595</v>
+      </c>
+      <c r="I3" s="5">
+        <v>795635</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1213</v>
+        <v>1413</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>1451042.1099999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2104229.11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>653187</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+        <v>1611987</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2390462</v>
+      </c>
+      <c r="I4" s="5">
+        <v>778475</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1313</v>
+        <v>1513</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>1688762.9100000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2578600.91</v>
+      </c>
+      <c r="D5" s="5">
+        <v>889838</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>1786603</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2686032</v>
+      </c>
+      <c r="I5" s="5">
+        <v>899429</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1413</v>
+        <v>1613</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>1683266.8199999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2632768.8199999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>949502</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+        <v>1636821</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2551066</v>
+      </c>
+      <c r="I6" s="5">
+        <v>914245</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1513</v>
+        <v>1713</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>2151242.66</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2953869.66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>802627</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>1800565</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2727633</v>
+      </c>
+      <c r="I7" s="5">
+        <v>927068</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1613</v>
+        <v>1813</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>2366870.25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3231072.25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>864202</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+        <v>2258078</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3099646</v>
+      </c>
+      <c r="I8" s="5">
+        <v>841568</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1713</v>
+        <v>1913</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <f>C9-D9-E9-F9</f>
+        <v>2333819.12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3248174.12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>914355</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>2256493</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3118320</v>
+      </c>
+      <c r="I9" s="5">
+        <v>861827</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1813</v>
+        <v>2013</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <f>C10-D10-E10-F10</f>
+        <v>2331667.39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3279014.39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>947347</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+        <f>H10-I10-J10-K10</f>
+        <v>2439693</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3368859</v>
+      </c>
+      <c r="I10" s="5">
+        <v>929166</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1913</v>
-      </c>
-      <c r="B11" s="4">
-        <f>C11-D11-E11-F11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="4">
-        <f>C12-D12-E12-F12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6">
-        <f>H12-I12-J12-K12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_inputs/financial_reports/imaging/FHA.xlsx
+++ b/model_inputs/financial_reports/imaging/FHA.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5274A-F5EF-4CE9-A082-F446C9142243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D257E02-593A-481A-A8D8-2AAEF56F3B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="BME_DI_ARH" sheetId="2" r:id="rId2"/>
-    <sheet name="BME_DI_MTN" sheetId="3" r:id="rId3"/>
-    <sheet name="BME_DI_OCEAN" sheetId="4" r:id="rId4"/>
+    <sheet name="BME_DI_MTN" sheetId="3" r:id="rId2"/>
+    <sheet name="BME_DI_OCEAN" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>fiscal_year</t>
   </si>
@@ -61,6 +60,12 @@
   </si>
   <si>
     <t>budgeted_parts_exp</t>
+  </si>
+  <si>
+    <t>DI_ARH is now under DI_MTN</t>
+  </si>
+  <si>
+    <t>Partial OH doesn't include subtracting parts cost since parts cost for a device is only incurred once every several years, making it difficult to compute an "annual" average parts cost. Makes more sense to lump parts costs into OH and distribute</t>
   </si>
 </sst>
 </file>
@@ -149,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -157,7 +162,6 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -497,22 +501,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +541,10 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -567,154 +584,299 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1713</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B5" si="0">C2-D2</f>
-        <v>405014.48</v>
+        <f>C2-D2-E2</f>
+        <v>2036264.7</v>
       </c>
       <c r="C2" s="5">
-        <v>713129.48</v>
+        <v>2904007.75</v>
       </c>
       <c r="D2" s="5">
-        <v>308115</v>
+        <v>818141.76</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>49601.29</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>2014719.97</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G5" si="1">H2-I2</f>
-        <v>0</v>
+        <f>H2-I2-J2</f>
+        <v>1522026</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>2354597</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>796199</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>36372</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>1518026</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1813</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="B3:B9" si="0">C3-D3-E3</f>
+        <v>1895820.76</v>
       </c>
       <c r="C3" s="5">
-        <v>317361</v>
+        <v>3711492.06</v>
       </c>
       <c r="D3" s="5">
-        <v>317361</v>
+        <v>1153395</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>662276.30000000005</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>1867323.76</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G3:G9" si="1">H3-I3-J3</f>
+        <v>1579720</v>
       </c>
       <c r="H3" s="5">
-        <v>279990</v>
+        <v>3106498</v>
       </c>
       <c r="I3" s="5">
-        <v>279990</v>
+        <v>872193</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>654585</v>
       </c>
       <c r="K3" s="5">
-        <v>0</v>
+        <v>1577381</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1913</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1522043.23</v>
       </c>
       <c r="C4" s="5">
-        <v>270092</v>
+        <v>3484992.69</v>
       </c>
       <c r="D4" s="5">
-        <v>270092</v>
+        <v>980818</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>982131.46</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1494614.21</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1597627</v>
       </c>
       <c r="H4" s="5">
-        <v>286736</v>
+        <v>3383049</v>
       </c>
       <c r="I4" s="5">
-        <v>286736</v>
+        <v>802795</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>982627</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>1595238</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2013</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>598.89000000001397</v>
+        <v>1199804.1199999999</v>
       </c>
       <c r="C5" s="5">
-        <v>362547.89</v>
+        <v>3382849.57</v>
       </c>
       <c r="D5" s="5">
-        <v>361949</v>
+        <v>1027173</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1155872.45</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>1164035.99</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1561788</v>
       </c>
       <c r="H5" s="5">
-        <v>320268</v>
+        <v>3483822</v>
       </c>
       <c r="I5" s="5">
-        <v>320268</v>
+        <v>903418</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>1018616</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>1559249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1713</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1138020.0399999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2652851.5099999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>663827</v>
+      </c>
+      <c r="E6" s="5">
+        <v>851004.47</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1109951.3400000001</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>1561788</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3625915</v>
+      </c>
+      <c r="I6" s="5">
+        <v>950511</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1113616</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1559249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1813</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1239290.3900000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2957063.68</v>
+      </c>
+      <c r="D7" s="5">
+        <v>644126</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1073647.29</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1199030.6599999999</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>1393100</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3092316</v>
+      </c>
+      <c r="I7" s="5">
+        <v>682269</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1016947</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1391931</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="A8" s="3">
+        <v>1913</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>1529899.4599999997</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3309280.07</v>
+      </c>
+      <c r="D8" s="5">
+        <v>669440</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1109940.6100000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1487707.2</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>1391165</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3102427</v>
+      </c>
+      <c r="I8" s="5">
+        <v>694715</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1016547</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1391931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>1423740.7099999997</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3354112.32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>732638</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1197733.6100000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1280278.1100000001</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>1445534</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3310502</v>
+      </c>
+      <c r="I9" s="5">
+        <v>849621</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1015347</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1445856</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -722,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,10 +900,10 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,335 +943,48 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1313</v>
+        <v>1213</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B9" si="0">C2-D2</f>
-        <v>2046045.8299999998</v>
+        <f>C2-D2-E2</f>
+        <v>1429485.69</v>
       </c>
       <c r="C2" s="5">
-        <v>2864187.59</v>
+        <v>1805569.04</v>
       </c>
       <c r="D2" s="5">
-        <v>818141.76</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>118779.37</v>
+      </c>
+      <c r="E2" s="5">
+        <v>257303.98</v>
+      </c>
+      <c r="F2" s="5">
+        <v>782684.84</v>
+      </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G9" si="1">H2-I2</f>
-        <v>1558398</v>
+        <f>H2-I2-J2</f>
+        <v>2361833</v>
       </c>
       <c r="H2" s="5">
-        <v>2354597</v>
+        <v>2367834</v>
       </c>
       <c r="I2" s="5">
-        <v>796199</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1413</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>2558097.06</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3711492.06</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1153395</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
-        <f t="shared" si="1"/>
-        <v>2234305</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3106498</v>
-      </c>
-      <c r="I3" s="5">
-        <v>872193</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1513</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>2385550.69</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3366368.69</v>
-      </c>
-      <c r="D4" s="5">
-        <v>980818</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>2580254</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3383049</v>
-      </c>
-      <c r="I4" s="5">
-        <v>802795</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1613</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>2355676.5699999998</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3382849.57</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1027173</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>2580404</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3483822</v>
-      </c>
-      <c r="I5" s="5">
-        <v>903418</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1713</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>1942942.5099999998</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2606769.5099999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>663827</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>2675404</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3625915</v>
-      </c>
-      <c r="I6" s="5">
-        <v>950511</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1813</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>2312937.6800000002</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2957063.68</v>
-      </c>
-      <c r="D7" s="5">
-        <v>644126</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>2410047</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3092316</v>
-      </c>
-      <c r="I7" s="5">
-        <v>682269</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1913</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>2639840.0699999998</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3309280.07</v>
-      </c>
-      <c r="D8" s="5">
-        <v>669440</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>2407712</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3102427</v>
-      </c>
-      <c r="I8" s="5">
-        <v>694715</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>2621474.3199999998</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3354112.32</v>
-      </c>
-      <c r="D9" s="5">
-        <v>732638</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>2460881</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3310502</v>
-      </c>
-      <c r="I9" s="5">
-        <v>849621</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1213</v>
-      </c>
-      <c r="B2" s="4">
-        <f t="shared" ref="B2:B8" si="0">C2-D2-E2-F2</f>
-        <v>1411013.6400000001</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2094024.55</v>
-      </c>
-      <c r="D2" s="5">
-        <v>683010.91</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:G9" si="1">H2-I2-J2-K2</f>
-        <v>1430960</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2226595</v>
-      </c>
-      <c r="I2" s="5">
-        <v>795635</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5">
+        <v>6001</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1597994</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1313</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>1411013.6400000001</v>
+        <f t="shared" ref="B3:B10" si="0">C3-D3-E3</f>
+        <v>1399985.6400000001</v>
       </c>
       <c r="C3" s="5">
         <v>2094024.55</v>
@@ -1117,10 +992,14 @@
       <c r="D3" s="5">
         <v>683010.91</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5">
+        <v>11028</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1378642.64</v>
+      </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G3:G10" si="1">H3-I3-J3</f>
         <v>1430960</v>
       </c>
       <c r="H3" s="5">
@@ -1129,8 +1008,12 @@
       <c r="I3" s="5">
         <v>795635</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1429653</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1138,19 +1021,23 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>1451042.1099999999</v>
+        <v>1334634.7499999998</v>
       </c>
       <c r="C4" s="5">
-        <v>2104229.11</v>
+        <v>2105979.11</v>
       </c>
       <c r="D4" s="5">
         <v>653187</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5">
+        <v>118157.36</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1315607.1399999999</v>
+      </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>1611987</v>
+        <v>1486710</v>
       </c>
       <c r="H4" s="5">
         <v>2390462</v>
@@ -1158,8 +1045,12 @@
       <c r="I4" s="5">
         <v>778475</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5">
+        <v>125277</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1485552</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1167,7 +1058,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>1688762.9100000001</v>
+        <v>1544789.7100000002</v>
       </c>
       <c r="C5" s="5">
         <v>2578600.91</v>
@@ -1175,11 +1066,15 @@
       <c r="D5" s="5">
         <v>889838</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5">
+        <v>143973.20000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1532936.08</v>
+      </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>1786603</v>
+        <v>1656256</v>
       </c>
       <c r="H5" s="5">
         <v>2686032</v>
@@ -1187,8 +1082,12 @@
       <c r="I5" s="5">
         <v>899429</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5">
+        <v>130347</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1655218</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1196,7 +1095,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>1683266.8199999998</v>
+        <v>1361983.8299999998</v>
       </c>
       <c r="C6" s="5">
         <v>2632768.8199999998</v>
@@ -1204,11 +1103,15 @@
       <c r="D6" s="5">
         <v>949502</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <v>321282.99</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1266121.32</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>1636821</v>
+        <v>1378474</v>
       </c>
       <c r="H6" s="5">
         <v>2551066</v>
@@ -1216,8 +1119,12 @@
       <c r="I6" s="5">
         <v>914245</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5">
+        <v>258347</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1377316</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1225,7 +1132,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>2151242.66</v>
+        <v>1684663.0100000002</v>
       </c>
       <c r="C7" s="5">
         <v>2953869.66</v>
@@ -1233,11 +1140,15 @@
       <c r="D7" s="5">
         <v>802627</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5">
+        <v>466579.65</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1492063.05</v>
+      </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>1800565</v>
+        <v>1378474</v>
       </c>
       <c r="H7" s="5">
         <v>2727633</v>
@@ -1245,8 +1156,12 @@
       <c r="I7" s="5">
         <v>927068</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5">
+        <v>422091</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1377316</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1254,7 +1169,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>2366870.25</v>
+        <v>1688742.44</v>
       </c>
       <c r="C8" s="5">
         <v>3231072.25</v>
@@ -1262,11 +1177,15 @@
       <c r="D8" s="5">
         <v>864202</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <v>678127.81</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1513508.34</v>
+      </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>2258078</v>
+        <v>1554624</v>
       </c>
       <c r="H8" s="5">
         <v>3099646</v>
@@ -1274,28 +1193,36 @@
       <c r="I8" s="5">
         <v>841568</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5">
+        <v>703454</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1377316</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1913</v>
       </c>
       <c r="B9" s="4">
-        <f>C9-D9-E9-F9</f>
-        <v>2333819.12</v>
+        <f t="shared" si="0"/>
+        <v>1648278.0100000002</v>
       </c>
       <c r="C9" s="5">
-        <v>3248174.12</v>
+        <v>3259181.14</v>
       </c>
       <c r="D9" s="5">
         <v>914355</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5">
+        <v>696548.13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1423018.11</v>
+      </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>2256493</v>
+        <v>1554164</v>
       </c>
       <c r="H9" s="5">
         <v>3118320</v>
@@ -1303,16 +1230,20 @@
       <c r="I9" s="5">
         <v>861827</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5">
+        <v>702329</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1377316</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2013</v>
       </c>
       <c r="B10" s="4">
-        <f>C10-D10-E10-F10</f>
-        <v>2331667.39</v>
+        <f t="shared" si="0"/>
+        <v>1507647.4100000001</v>
       </c>
       <c r="C10" s="5">
         <v>3279014.39</v>
@@ -1320,11 +1251,15 @@
       <c r="D10" s="5">
         <v>947347</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <v>824019.98</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1310225.93</v>
+      </c>
       <c r="G10" s="6">
-        <f>H10-I10-J10-K10</f>
-        <v>2439693</v>
+        <f t="shared" si="1"/>
+        <v>1737739</v>
       </c>
       <c r="H10" s="5">
         <v>3368859</v>
@@ -1332,8 +1267,12 @@
       <c r="I10" s="5">
         <v>929166</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5">
+        <v>701954</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1560661</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
